--- a/DABI/討論區問題/ET-AVS對照檔.xlsx
+++ b/DABI/討論區問題/ET-AVS對照檔.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11865"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11865" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="ET" sheetId="2" r:id="rId2"/>
+    <sheet name="ERROR" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="115">
   <si>
     <t>RTLessorAVSCmtyH</t>
   </si>
@@ -169,148 +169,209 @@
     <t>RTLessorCustSndworkLog</t>
   </si>
   <si>
+    <t>RTLessorCustReturnSndWorkLog</t>
+  </si>
+  <si>
+    <t>RTLessorCustReturnSndWork</t>
+  </si>
+  <si>
+    <t>RTLessorCustReturnLog</t>
+  </si>
+  <si>
+    <t>RTLessorCustReturn</t>
+  </si>
+  <si>
+    <t>RTLessorCustRepairLog</t>
+  </si>
+  <si>
+    <t>RTLessorCustRepair</t>
+  </si>
+  <si>
+    <t>RTLessorCustRCVHardwareLog</t>
+  </si>
+  <si>
+    <t>RTLessorCustRCVHardwareDTL</t>
+  </si>
+  <si>
+    <t>RTLessorCustRCVHardware</t>
+  </si>
+  <si>
+    <t>RTLessorCustLog</t>
+  </si>
+  <si>
+    <t>RTLessorCustHardwareLog</t>
+  </si>
+  <si>
+    <t>RTLessorCustHardware</t>
+  </si>
+  <si>
+    <t>RTLessorCustFaqSndworkLog</t>
+  </si>
+  <si>
+    <t>RTLessorCustFaqSndworkFixCode</t>
+  </si>
+  <si>
+    <t>RTLessorCustFaqSndwork</t>
+  </si>
+  <si>
+    <t>RTLessorCustFaqList</t>
+  </si>
+  <si>
+    <t>RTLessorCustFaqHLog</t>
+  </si>
+  <si>
+    <t>RTLessorCustFaqHardwareLog</t>
+  </si>
+  <si>
+    <t>RTLessorCustFaqHardware</t>
+  </si>
+  <si>
+    <t>RTLessorCustFaqH</t>
+  </si>
+  <si>
+    <t>RTLessorCustDropSndworkLog</t>
+  </si>
+  <si>
+    <t>RTLessorCustDropSndwork</t>
+  </si>
+  <si>
+    <t>RTLessorCustDropLog</t>
+  </si>
+  <si>
+    <t>RTLessorCustDrop</t>
+  </si>
+  <si>
+    <t>RTLessorCustContSndworkLog</t>
+  </si>
+  <si>
+    <t>RTLessorCustContSndwork</t>
+  </si>
+  <si>
+    <t>RTLessorCustContLog</t>
+  </si>
+  <si>
+    <t>RTLessorCustCont</t>
+  </si>
+  <si>
+    <t>RTLessorCustBillingPrtSub</t>
+  </si>
+  <si>
+    <t>RTLessorCustBillingPrt</t>
+  </si>
+  <si>
+    <t>RTLessorCustBillingBarcode</t>
+  </si>
+  <si>
+    <t>RTLessorCustARDTL</t>
+  </si>
+  <si>
+    <t>RTLessorCustARClear</t>
+  </si>
+  <si>
+    <t>RTLessorCustAR</t>
+  </si>
+  <si>
+    <t>RTLessorCustAdjDayLog</t>
+  </si>
+  <si>
+    <t>RTLessorCustAdjDay</t>
+  </si>
+  <si>
+    <t>RTLessorCust</t>
+  </si>
+  <si>
+    <t>RTLessorCmtylineSndworkLog</t>
+  </si>
+  <si>
+    <t>RTLessorCmtyLineSndwork</t>
+  </si>
+  <si>
+    <t>RTLessorCmtyLineLog</t>
+  </si>
+  <si>
+    <t>RTLessorCmtyLineDropSndworkLog</t>
+  </si>
+  <si>
+    <t>RTLessorCmtyLineDropSndwork</t>
+  </si>
+  <si>
+    <t>RTLessorCmtyLineDropLog</t>
+  </si>
+  <si>
+    <t>RTLessorCmtyLineDrop</t>
+  </si>
+  <si>
+    <t>RTLessorCmtyLine</t>
+  </si>
+  <si>
+    <t>ET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>RTLessorCustSndwork</t>
-  </si>
-  <si>
-    <t>RTLessorCustReturnSndWorkLog</t>
-  </si>
-  <si>
-    <t>RTLessorCustReturnSndWork</t>
-  </si>
-  <si>
-    <t>RTLessorCustReturnLog</t>
-  </si>
-  <si>
-    <t>RTLessorCustReturn</t>
-  </si>
-  <si>
-    <t>RTLessorCustRepairLog</t>
-  </si>
-  <si>
-    <t>RTLessorCustRepair</t>
-  </si>
-  <si>
-    <t>RTLessorCustRCVHardwareLog</t>
-  </si>
-  <si>
-    <t>RTLessorCustRCVHardwareDTL</t>
-  </si>
-  <si>
-    <t>RTLessorCustRCVHardware</t>
-  </si>
-  <si>
-    <t>RTLessorCustLog</t>
-  </si>
-  <si>
-    <t>RTLessorCustHardwareLog</t>
-  </si>
-  <si>
-    <t>RTLessorCustHardware</t>
-  </si>
-  <si>
-    <t>RTLessorCustFaqSndworkLog</t>
-  </si>
-  <si>
-    <t>RTLessorCustFaqSndworkFixCode</t>
-  </si>
-  <si>
-    <t>RTLessorCustFaqSndwork</t>
-  </si>
-  <si>
-    <t>RTLessorCustFaqList</t>
-  </si>
-  <si>
-    <t>RTLessorCustFaqHLog</t>
-  </si>
-  <si>
-    <t>RTLessorCustFaqHardwareLog</t>
-  </si>
-  <si>
-    <t>RTLessorCustFaqHardware</t>
-  </si>
-  <si>
-    <t>RTLessorCustFaqH</t>
-  </si>
-  <si>
-    <t>RTLessorCustDropSndworkLog</t>
-  </si>
-  <si>
-    <t>RTLessorCustDropSndwork</t>
-  </si>
-  <si>
-    <t>RTLessorCustDropLog</t>
-  </si>
-  <si>
-    <t>RTLessorCustDrop</t>
-  </si>
-  <si>
-    <t>RTLessorCustContSndworkLog</t>
-  </si>
-  <si>
-    <t>RTLessorCustContSndwork</t>
-  </si>
-  <si>
-    <t>RTLessorCustContLog</t>
-  </si>
-  <si>
-    <t>RTLessorCustCont</t>
-  </si>
-  <si>
-    <t>RTLessorCustBillingPrtSub</t>
-  </si>
-  <si>
-    <t>RTLessorCustBillingPrt</t>
-  </si>
-  <si>
-    <t>RTLessorCustBillingBarcode</t>
-  </si>
-  <si>
-    <t>RTLessorCustARDTL</t>
-  </si>
-  <si>
-    <t>RTLessorCustARClear</t>
-  </si>
-  <si>
-    <t>RTLessorCustAR</t>
-  </si>
-  <si>
-    <t>RTLessorCustAdjDayLog</t>
-  </si>
-  <si>
-    <t>RTLessorCustAdjDay</t>
-  </si>
-  <si>
-    <t>RTLessorCust</t>
-  </si>
-  <si>
-    <t>RTLessorCmtylineSndworkLog</t>
-  </si>
-  <si>
-    <t>RTLessorCmtyLineSndwork</t>
-  </si>
-  <si>
-    <t>RTLessorCmtyLineLog</t>
-  </si>
-  <si>
-    <t>RTLessorCmtyLineDropSndworkLog</t>
-  </si>
-  <si>
-    <t>RTLessorCmtyLineDropSndwork</t>
-  </si>
-  <si>
-    <t>RTLessorCmtyLineDropLog</t>
-  </si>
-  <si>
-    <t>RTLessorCmtyLineDrop</t>
-  </si>
-  <si>
-    <t>RTLessorCmtyLine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Insert into </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> select * from </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RTLessorCmtyH</t>
-  </si>
-  <si>
-    <t>ET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTLessorCustSndwork</t>
+  </si>
+  <si>
+    <t>RTLessorCustContHardwareLog</t>
+  </si>
+  <si>
+    <t>RTLessorCustContHardware</t>
+  </si>
+  <si>
+    <t>RTLessorCustAdjDay1222BK</t>
+  </si>
+  <si>
+    <t>RTLessorCmtyH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT * FROM </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UPDATE </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> SET COMQ1 = COMQ1 + 478</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insert into RTLessorAVSCustReturnSndWork select * from RTLessorCustReturnSndWork</t>
+  </si>
+  <si>
+    <t>Insert into RTLessorAVSCustBillingPrtSub select * from RTLessorCustBillingPrtSub</t>
+  </si>
+  <si>
+    <t>Insert into RTLessorAVSCustBillingPrt select * from RTLessorCustBillingPrt</t>
+  </si>
+  <si>
+    <t>Insert into RTLessorAVSCustLog select * from RTLessorCustLog</t>
+  </si>
+  <si>
+    <t>MAC --&gt;20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AVSCUST </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQUIP --&gt; 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -664,29 +725,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="37.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.25" customWidth="1"/>
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -699,8 +763,18 @@
       <c r="D2" s="1">
         <v>2051</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" t="str">
+        <f>CONCATENATE(E2,A2,F2,C2)</f>
+        <v>Insert into RTLessorAVSCustSndworkLog select * from RTLessorCustSndworkLog</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -708,13 +782,23 @@
         <v>4328</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="D3" s="1">
         <v>1812</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G49" si="0">CONCATENATE(E3,A3,F3,C3)</f>
+        <v>Insert into RTLessorAVSCustSndwork select * from RTLessorCustSndwork</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -722,13 +806,23 @@
         <v>121</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCustReturnSndWorkLog select * from RTLessorCustReturnSndWorkLog</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -736,13 +830,23 @@
         <v>87</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCustReturnSndWork select * from RTLessorCustReturnSndWork</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -750,13 +854,23 @@
         <v>251</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="1">
         <v>133</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCustReturnLog select * from RTLessorCustReturnLog</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -764,13 +878,23 @@
         <v>170</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCustReturn select * from RTLessorCustReturn</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -778,13 +902,23 @@
         <v>269</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCustRepairLog select * from RTLessorCustRepairLog</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -792,13 +926,23 @@
         <v>232</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCustRepair select * from RTLessorCustRepair</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -806,13 +950,23 @@
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCustRCVHardwareLog select * from RTLessorCustRCVHardwareLog</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -820,13 +974,23 @@
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCustRCVHardwareDTL select * from RTLessorCustRCVHardwareDTL</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -834,13 +998,23 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCustRCVHardware select * from RTLessorCustRCVHardware</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -848,13 +1022,23 @@
         <v>42918</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="1">
         <v>10067</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCustLog select * from RTLessorCustLog</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -862,13 +1046,23 @@
         <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCustHardwareLog select * from RTLessorCustHardwareLog</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -876,13 +1070,23 @@
         <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCustHardware select * from RTLessorCustHardware</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -890,13 +1094,23 @@
         <v>807</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="1">
         <v>893</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCustFaqSndworkLog select * from RTLessorCustFaqSndworkLog</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -904,13 +1118,23 @@
         <v>447</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="1">
         <v>820</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCustFaqSndworkFixCode select * from RTLessorCustFaqSndworkFixCode</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -918,13 +1142,23 @@
         <v>844</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="1">
         <v>836</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCustFaqSndwork select * from RTLessorCustFaqSndwork</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -932,13 +1166,23 @@
         <v>116</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCustFaqList select * from RTLessorCustFaqList</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -946,13 +1190,23 @@
         <v>4941</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D20" s="1">
         <v>5385</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCustFaqHLog select * from RTLessorCustFaqHLog</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -960,13 +1214,23 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCustFaqHardwareLog select * from RTLessorCustFaqHardwareLog</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -974,13 +1238,23 @@
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCustFaqHardware select * from RTLessorCustFaqHardware</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -988,13 +1262,23 @@
         <v>2491</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="1">
         <v>2412</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCustFaqH select * from RTLessorCustFaqH</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1002,13 +1286,23 @@
         <v>5535</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="1">
         <v>2430</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCustDropSndworkLog select * from RTLessorCustDropSndworkLog</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1016,13 +1310,23 @@
         <v>4747</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" s="1">
         <v>1970</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCustDropSndwork select * from RTLessorCustDropSndwork</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1030,13 +1334,23 @@
         <v>15893</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D26" s="1">
         <v>6961</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCustDropLog select * from RTLessorCustDropLog</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1044,13 +1358,23 @@
         <v>4738</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D27" s="1">
         <v>1954</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCustDrop select * from RTLessorCustDrop</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -1058,13 +1382,23 @@
         <v>502</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D28" s="1">
         <v>1058</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCustContSndworkLog select * from RTLessorCustContSndworkLog</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -1072,13 +1406,23 @@
         <v>509</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D29" s="1">
         <v>887</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCustContSndwork select * from RTLessorCustContSndwork</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -1086,13 +1430,23 @@
         <v>28768</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D30" s="1">
         <v>3347</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCustContLog select * from RTLessorCustContLog</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1100,13 +1454,23 @@
         <v>19556</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D31">
         <v>2844</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCustCont select * from RTLessorCustCont</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1114,13 +1478,23 @@
         <v>22334</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D32">
         <v>2977</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCustBillingPrtSub select * from RTLessorCustBillingPrtSub</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1128,13 +1502,23 @@
         <v>244</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D33">
         <v>220</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCustBillingPrt select * from RTLessorCustBillingPrt</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1142,13 +1526,23 @@
         <v>77003</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D34">
         <v>6435</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCustBillingBarcode select * from RTLessorCustBillingBarcode</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1156,13 +1550,23 @@
         <v>254214</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D35">
         <v>67740</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCustARDTL select * from RTLessorCustARDTL</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1170,13 +1574,23 @@
         <v>12216</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D36">
         <v>4491</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCustARClear select * from RTLessorCustARClear</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1184,13 +1598,23 @@
         <v>30522</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D37">
         <v>5084</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCustAR select * from RTLessorCustAR</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1198,13 +1622,23 @@
         <v>2294</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D38">
         <v>292</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="s">
+        <v>97</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCustAdjDayLog select * from RTLessorCustAdjDayLog</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1212,13 +1646,23 @@
         <v>1753</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D39">
         <v>261</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCustAdjDay select * from RTLessorCustAdjDay</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1226,13 +1670,23 @@
         <v>7869</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D40">
         <v>1852</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCust select * from RTLessorCust</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1240,13 +1694,23 @@
         <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCmtylineSndworkLog select * from RTLessorCmtylineSndworkLog</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1254,13 +1718,23 @@
         <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D42">
         <v>28</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCmtyLineSndwork select * from RTLessorCmtyLineSndwork</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1268,13 +1742,23 @@
         <v>482</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D43">
         <v>176</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" t="s">
+        <v>97</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCmtyLineLog select * from RTLessorCmtyLineLog</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1282,13 +1766,23 @@
         <v>467</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D44">
         <v>174</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" t="s">
+        <v>97</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCmtyLineDropSndworkLog select * from RTLessorCmtyLineDropSndworkLog</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1296,13 +1790,23 @@
         <v>465</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45">
         <v>174</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCmtyLineDropSndwork select * from RTLessorCmtyLineDropSndwork</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1310,13 +1814,23 @@
         <v>1376</v>
       </c>
       <c r="C46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D46">
         <v>517</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" t="s">
+        <v>97</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCmtyLineDropLog select * from RTLessorCmtyLineDropLog</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1324,13 +1838,23 @@
         <v>458</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D47">
         <v>174</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" t="s">
+        <v>97</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCmtyLineDrop select * from RTLessorCmtyLineDrop</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1338,13 +1862,23 @@
         <v>737</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D48">
         <v>174</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" t="s">
+        <v>97</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCmtyLine select * from RTLessorCmtyLine</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -1352,10 +1886,20 @@
         <v>473</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D49">
         <v>104</v>
+      </c>
+      <c r="E49" t="s">
+        <v>97</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into RTLessorAVSCmtyH select * from RTLessorCmtyH</v>
       </c>
     </row>
   </sheetData>
@@ -1367,12 +1911,784 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37:F51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="33.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5" customWidth="1"/>
+    <col min="3" max="3" width="3" customWidth="1"/>
+    <col min="4" max="4" width="5.375" customWidth="1"/>
+    <col min="5" max="5" width="5.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" t="str">
+        <f>CONCATENATE(B1,A1)</f>
+        <v>SELECT * FROM RTLessorCustSndworkLog</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C51" si="0">CONCATENATE(B2,A2)</f>
+        <v>SELECT * FROM RTLessorCustSndwork</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCustReturnSndWorkLog</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCustReturnSndWork</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCustReturnLog</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCustReturn</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCustRepairLog</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCustRepair</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCustRCVHardwareLog</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCustRCVHardwareDTL</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCustRCVHardware</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCustLog</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCustHardwareLog</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCustHardware</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCustFaqSndworkLog</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCustFaqSndworkFixCode</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCustFaqSndwork</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCustFaqList</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCustFaqHLog</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCustFaqHardwareLog</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCustFaqHardware</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCustFaqH</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCustDropSndworkLog</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCustDropSndwork</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCustDropLog</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCustDrop</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCustContSndworkLog</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCustContSndwork</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCustContLog</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCustContHardwareLog</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCustContHardware</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCustCont</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCustBillingPrtSub</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCustBillingPrt</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCustBillingBarcode</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCustARDTL</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCustARClear</v>
+      </c>
+      <c r="D37" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" t="s">
+        <v>107</v>
+      </c>
+      <c r="F37" t="str">
+        <f>CONCATENATE(D37,A37,E37)</f>
+        <v>UPDATE RTLessorCustARClear SET COMQ1 = COMQ1 + 478</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCustAR</v>
+      </c>
+      <c r="D38" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" ref="F38:F51" si="1">CONCATENATE(D38,A38,E38)</f>
+        <v>UPDATE RTLessorCustAR SET COMQ1 = COMQ1 + 478</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCustAdjDayLog</v>
+      </c>
+      <c r="D39" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE RTLessorCustAdjDayLog SET COMQ1 = COMQ1 + 478</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCustAdjDay1222BK</v>
+      </c>
+      <c r="D40" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE RTLessorCustAdjDay1222BK SET COMQ1 = COMQ1 + 478</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCustAdjDay</v>
+      </c>
+      <c r="D41" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" t="s">
+        <v>107</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE RTLessorCustAdjDay SET COMQ1 = COMQ1 + 478</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCust</v>
+      </c>
+      <c r="D42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" t="s">
+        <v>107</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE RTLessorCust SET COMQ1 = COMQ1 + 478</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCmtylineSndworkLog</v>
+      </c>
+      <c r="D43" t="s">
+        <v>106</v>
+      </c>
+      <c r="E43" t="s">
+        <v>107</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE RTLessorCmtylineSndworkLog SET COMQ1 = COMQ1 + 478</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCmtyLineSndwork</v>
+      </c>
+      <c r="D44" t="s">
+        <v>106</v>
+      </c>
+      <c r="E44" t="s">
+        <v>107</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE RTLessorCmtyLineSndwork SET COMQ1 = COMQ1 + 478</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCmtyLineLog</v>
+      </c>
+      <c r="D45" t="s">
+        <v>106</v>
+      </c>
+      <c r="E45" t="s">
+        <v>107</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE RTLessorCmtyLineLog SET COMQ1 = COMQ1 + 478</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCmtyLineDropSndworkLog</v>
+      </c>
+      <c r="D46" t="s">
+        <v>106</v>
+      </c>
+      <c r="E46" t="s">
+        <v>107</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE RTLessorCmtyLineDropSndworkLog SET COMQ1 = COMQ1 + 478</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCmtyLineDropSndwork</v>
+      </c>
+      <c r="D47" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE RTLessorCmtyLineDropSndwork SET COMQ1 = COMQ1 + 478</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCmtyLineDropLog</v>
+      </c>
+      <c r="D48" t="s">
+        <v>106</v>
+      </c>
+      <c r="E48" t="s">
+        <v>107</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE RTLessorCmtyLineDropLog SET COMQ1 = COMQ1 + 478</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCmtyLineDrop</v>
+      </c>
+      <c r="D49" t="s">
+        <v>106</v>
+      </c>
+      <c r="E49" t="s">
+        <v>107</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE RTLessorCmtyLineDrop SET COMQ1 = COMQ1 + 478</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCmtyLine</v>
+      </c>
+      <c r="D50" t="s">
+        <v>106</v>
+      </c>
+      <c r="E50" t="s">
+        <v>107</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE RTLessorCmtyLine SET COMQ1 = COMQ1 + 478</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT * FROM RTLessorCmtyH</v>
+      </c>
+      <c r="D51" t="s">
+        <v>106</v>
+      </c>
+      <c r="E51" t="s">
+        <v>107</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE RTLessorCmtyH SET COMQ1 = COMQ1 + 478</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -1381,12 +2697,48 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
